--- a/Examples/Data/02_OutputDirectory/outputSampleTextboxPartialTextAllignment.xlsx
+++ b/Examples/Data/02_OutputDirectory/outputSampleTextboxPartialTextAllignment.xlsx
@@ -16,7 +16,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hello</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hello</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hello</t>
+    </r>
+  </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2018 Aspose Pty Ltd.</t>
   </si>
@@ -25,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -37,6 +68,26 @@
       <i/>
       <sz val="18"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -230,6 +281,18 @@
               </a:solidFill>
             </a:defRPr>
           </a:pPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr lang="en-US" sz="1200" u="none" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1200" u="none" baseline="0">
               <a:solidFill>
@@ -239,9 +302,20 @@
               <a:ea typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Hello
-</a:t>
+            <a:t>Hell</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="2800" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="2800" b="1" u="none" baseline="0">
               <a:solidFill>
@@ -251,9 +325,20 @@
               <a:ea typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Hello
-</a:t>
+            <a:t>Hell</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r">
+            <a:defRPr lang="en-US" sz="1200" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" u="none" baseline="0">
               <a:solidFill>
@@ -575,7 +660,13 @@
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="12.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -592,7 +683,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
